--- a/data/trans_bre/P0902-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.20623244009957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.01503355974032</v>
+        <v>5.015033559740317</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3686105326643981</v>
@@ -649,7 +649,7 @@
         <v>0.9872859663505349</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3559876297059838</v>
+        <v>0.3559876297059836</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4660462371102284</v>
+        <v>-0.4035586763190493</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.805538055155085</v>
+        <v>4.701611162707901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.119602866826699</v>
+        <v>6.981704413048316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.650390193832459</v>
+        <v>1.628969254285366</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04357436969117656</v>
+        <v>-0.05099247756111675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3370735949246028</v>
+        <v>0.3324866941862153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5182364734184013</v>
+        <v>0.5285075116735131</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1000222451057141</v>
+        <v>0.09696876100608645</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.824139623899076</v>
+        <v>5.720347747271867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.95801066180164</v>
+        <v>12.67475762071139</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.43766998365426</v>
+        <v>15.48383445942333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.777620767939435</v>
+        <v>8.463114442694197</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9400958382288469</v>
+        <v>0.8824966614047065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.234405506017106</v>
+        <v>1.222609090769265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.586871726852016</v>
+        <v>1.589823035298411</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7565720715210229</v>
+        <v>0.6926455742190543</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.563035413111402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.39847383970492</v>
+        <v>8.398473839704918</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6587915911808339</v>
@@ -749,7 +749,7 @@
         <v>0.8382228994021294</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.753053110899897</v>
+        <v>0.7530531108998968</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.311996279376686</v>
+        <v>2.590960105838545</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.527636991552605</v>
+        <v>6.442345620375706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.424376410001119</v>
+        <v>4.507957833544831</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.551723283065108</v>
+        <v>5.431349175348924</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2369485425870642</v>
+        <v>0.282833790902643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4851054185373652</v>
+        <v>0.4828393243470449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4253567557959228</v>
+        <v>0.4390857963281617</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4213176977158542</v>
+        <v>0.4166665522066989</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.312000935569886</v>
+        <v>8.279005191349439</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.51602042760357</v>
+        <v>13.55834237517307</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.34105201809958</v>
+        <v>10.62090956315244</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.1591343587411</v>
+        <v>11.21537284653751</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.172371202889308</v>
+        <v>1.199055655617342</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.297325286510261</v>
+        <v>1.327213527078241</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.317709409034567</v>
+        <v>1.385138255727841</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.174415608900433</v>
+        <v>1.171194433913944</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.248496776061998</v>
+        <v>4.189750797384396</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.981347513342888</v>
+        <v>5.407472619100353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.516821625349549</v>
+        <v>5.256759859947644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.311140557951978</v>
+        <v>2.220437269913872</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3880208242173911</v>
+        <v>0.4028600551198821</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4784332909660637</v>
+        <v>0.494336259540967</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5903719682443426</v>
+        <v>0.5710962998581266</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1467114482069057</v>
+        <v>0.1416273880999387</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.77034647928211</v>
+        <v>11.45865851382827</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.30520676124791</v>
+        <v>12.12998461059273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.82507180039701</v>
+        <v>12.21567027248109</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.221080324811897</v>
+        <v>9.445257472544455</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.676375037228143</v>
+        <v>1.597110063622509</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.756596302785564</v>
+        <v>1.67555391867471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.163477355397962</v>
+        <v>1.973431006716623</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8109974923746124</v>
+        <v>0.8307797690464099</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.145708682841438</v>
+        <v>6.071586532648695</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.576308298217989</v>
+        <v>4.792750754849076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.970891129396044</v>
+        <v>3.876022631228637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.884498219581329</v>
+        <v>6.027472735342771</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6403608274804471</v>
+        <v>0.6380345339774325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3635096119447637</v>
+        <v>0.3744807965629507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3536700538254695</v>
+        <v>0.3314222204096353</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4297702110217593</v>
+        <v>0.435650214326596</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.0273618072096</v>
+        <v>12.05698868596234</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.35843046912403</v>
+        <v>11.44660937026199</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.28700894287145</v>
+        <v>10.49691398941562</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.40429656555425</v>
+        <v>11.53965188211511</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.71860786534013</v>
+        <v>1.756274858146871</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.209763117839592</v>
+        <v>1.191592330792458</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.235019735250701</v>
+        <v>1.272083561321381</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.097965633237278</v>
+        <v>1.065711292504927</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.941235208657972</v>
+        <v>5.069613356825497</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.377599868019757</v>
+        <v>7.232948105047003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.903285799214818</v>
+        <v>6.783630007139661</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.671805428895828</v>
+        <v>5.656492639962794</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5543569391865506</v>
+        <v>0.5744096197612113</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6229793509768591</v>
+        <v>0.6138036475128134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6757780922902522</v>
+        <v>0.669747796989322</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4210405129126062</v>
+        <v>0.4173833228302132</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.020125256336428</v>
+        <v>8.023856976890263</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.89737327546901</v>
+        <v>10.81773269234258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.12564067297398</v>
+        <v>10.26308136031374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.810936956418344</v>
+        <v>8.712976544506002</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.077040117920043</v>
+        <v>1.074225507609279</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.070863379990437</v>
+        <v>1.064080961788311</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.185634846480173</v>
+        <v>1.186083273602961</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7553906351467985</v>
+        <v>0.7510467978056834</v>
       </c>
     </row>
     <row r="19">
